--- a/MIS/public/templateNRBR.xlsx
+++ b/MIS/public/templateNRBR.xlsx
@@ -1,86 +1,192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ad PROJECT\MIS\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBB97F-6D04-4E2F-98ED-FC6F61055D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="928" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Computers form" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Computers form" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">'Computers form'!$A$1:$F$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Computers form'!$A$1:$F$38</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+  <si>
+    <t>DEWHIRST GROUP LTD –  IT COMPUTER FORM    Ref: IT003 v2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division </t>
+  </si>
+  <si>
+    <t>(e.g Driffield, SDL, DBO, Cambodia, etc.)</t>
+  </si>
+  <si>
+    <t>(e.g  Group, Ladieswear, Menswear, etc.)</t>
+  </si>
+  <si>
+    <t>New, Rebuild or Removal</t>
+  </si>
+  <si>
+    <t>Old Computer Name</t>
+  </si>
+  <si>
+    <t>(if a rebuild)</t>
+  </si>
+  <si>
+    <t>New Computer Name (with suffix of a, b, c, etc.)</t>
+  </si>
+  <si>
+    <t>Laptop/Desktop</t>
+  </si>
+  <si>
+    <t>(Always use the original name with suffix added for re-builds)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>(Windows 7 or Windows 10)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Member of: (AD Groups)</t>
+  </si>
+  <si>
+    <t>(John Smith's Laptop, etc.)</t>
+  </si>
+  <si>
+    <t>(e.g. WEB 64 bit Client)</t>
+  </si>
+  <si>
+    <t>Form Raised by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Raised Date </t>
+  </si>
+  <si>
+    <t>(mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>To be completed by Group IT ONLY</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Checked By</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Is client in correct OU in AD?</t>
+  </si>
+  <si>
+    <t>Is client in correct AD groups?</t>
+  </si>
+  <si>
+    <t>Does client have correct naming convention?</t>
+  </si>
+  <si>
+    <t>Does client have a valid useful description?</t>
+  </si>
+  <si>
+    <t>Has the NEW client been setup in:</t>
+  </si>
+  <si>
+    <t>Active Directory</t>
+  </si>
+  <si>
+    <t>Cylance</t>
+  </si>
+  <si>
+    <t>SCCM</t>
+  </si>
+  <si>
+    <t>Has the OLD client been removed from:</t>
+  </si>
+  <si>
+    <t>Update 'ALL_CLIENTS' master spreadsheet</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
-      <sz val="14"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="18"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
-      <sz val="18"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="18"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color indexed="12"/>
-      <sz val="18"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -361,17 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="8"/>
@@ -423,154 +518,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="62">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -640,6 +713,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -990,503 +1071,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="13"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="80.28515625" customWidth="1" min="1" max="1"/>
-    <col width="50.7109375" customWidth="1" min="2" max="2"/>
-    <col width="4.140625" customWidth="1" min="3" max="3"/>
-    <col width="78.5703125" customWidth="1" min="4" max="4"/>
-    <col width="44.7109375" customWidth="1" min="5" max="5"/>
-    <col width="6.5703125" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="80.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.2" customHeight="1">
-      <c r="A1" s="8" t="n"/>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="21.2" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="61" t="inlineStr">
-        <is>
-          <t>DEWHIRST GROUP LTD –  IT COMPUTER FORM    Ref: IT003 v2.0</t>
-        </is>
-      </c>
-      <c r="F2" s="62" t="n"/>
-    </row>
-    <row r="3" ht="21.2" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="14" t="n"/>
-    </row>
-    <row r="4" ht="26.1" customFormat="1" customHeight="1" s="1">
-      <c r="A4" s="15" t="n"/>
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="17" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="17" t="n"/>
-      <c r="F4" s="18" t="n"/>
-    </row>
-    <row r="5" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Site </t>
-        </is>
-      </c>
-      <c r="B5" s="24" t="inlineStr">
-        <is>
-          <t>SDL</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Division </t>
-        </is>
-      </c>
-      <c r="E5" s="24" t="inlineStr">
-        <is>
-          <t>Ladieswear</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="n"/>
-    </row>
-    <row r="6" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>(e.g Driffield, SDL, DBO, Cambodia, etc.)</t>
-        </is>
-      </c>
-      <c r="B6" s="25" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>(e.g  Group, Ladieswear, Menswear, etc.)</t>
-        </is>
-      </c>
-      <c r="E6" s="26" t="n"/>
-      <c r="F6" s="11" t="n"/>
-    </row>
-    <row r="7" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A7" s="21" t="inlineStr">
-        <is>
-          <t>New, Rebuild or Removal</t>
-        </is>
-      </c>
-      <c r="B7" s="24" t="inlineStr">
-        <is>
-          <t>Rebuild</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Old Computer Name</t>
-        </is>
-      </c>
-      <c r="E7" s="24" t="inlineStr">
-        <is>
-          <t>SDL</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A8" s="22" t="n"/>
-      <c r="B8" s="26" t="n"/>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>(if a rebuild)</t>
-        </is>
-      </c>
-      <c r="E8" s="26" t="n"/>
-      <c r="F8" s="11" t="n"/>
-    </row>
-    <row r="9" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t>New Computer Name (with suffix of a, b, c, etc.)</t>
-        </is>
-      </c>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t>SDL</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Laptop/Desktop</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A10" s="51" t="inlineStr">
-        <is>
-          <t>(Always use the original name with suffix added for re-builds)</t>
-        </is>
-      </c>
-      <c r="B10" s="26" t="n"/>
-      <c r="E10" s="26" t="n"/>
-      <c r="F10" s="11" t="n"/>
-    </row>
-    <row r="11" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A11" s="21" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="B11" s="28" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Operating System</t>
-        </is>
-      </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>Windows 11 Pro</t>
-        </is>
-      </c>
-      <c r="F11" s="11" t="n"/>
-    </row>
-    <row r="12" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A12" s="22" t="n"/>
-      <c r="B12" s="26" t="n"/>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>(Windows 7 or Windows 10)</t>
-        </is>
-      </c>
-      <c r="E12" s="26" t="n"/>
-      <c r="F12" s="11" t="n"/>
-    </row>
-    <row r="13" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A13" s="21" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B13" s="24" t="inlineStr">
-        <is>
-          <t>Please provide a brief description of the request.</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Member of: (AD Groups)</t>
-        </is>
-      </c>
-      <c r="E13" s="28" t="inlineStr">
-        <is>
-          <t>WEB 64 bit Client</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="30" customFormat="1" customHeight="1" s="3">
-      <c r="A14" s="51" t="inlineStr">
-        <is>
-          <t>(John Smith's Laptop, etc.)</t>
-        </is>
-      </c>
-      <c r="B14" s="25" t="n"/>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>(e.g. WEB 64 bit Client)</t>
-        </is>
-      </c>
-      <c r="E14" s="25" t="n"/>
-      <c r="F14" s="20" t="n"/>
-    </row>
-    <row r="15" ht="39" customFormat="1" customHeight="1" s="3">
-      <c r="A15" s="23" t="inlineStr">
-        <is>
-          <t>Form Raised by</t>
-        </is>
-      </c>
-      <c r="B15" s="29" t="inlineStr">
-        <is>
-          <t>Tareque Hasan</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Form Raised Date </t>
-        </is>
-      </c>
-      <c r="E15" s="63" t="inlineStr">
-        <is>
-          <t>8/5/2025</t>
-        </is>
-      </c>
-      <c r="F15" s="20" t="n"/>
-    </row>
-    <row r="16" ht="30" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="26" t="n"/>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>(mm/dd/yyyy)</t>
-        </is>
-      </c>
-      <c r="E16" s="26" t="n"/>
-      <c r="F16" s="11" t="n"/>
-    </row>
-    <row r="17" ht="30" customFormat="1" customHeight="1" s="4">
-      <c r="A17" s="31" t="n"/>
-      <c r="B17" s="64" t="inlineStr">
-        <is>
-          <t>To be completed by Group IT ONLY</t>
-        </is>
-      </c>
-      <c r="C17" s="65" t="n"/>
-      <c r="D17" s="66" t="n"/>
-      <c r="E17" s="67" t="n"/>
-      <c r="F17" s="68" t="n"/>
-    </row>
-    <row r="18" ht="30" customFormat="1" customHeight="1" s="2">
-      <c r="A18" s="32" t="n"/>
-      <c r="B18" s="33" t="inlineStr">
-        <is>
-          <t>Yes/No</t>
-        </is>
-      </c>
-      <c r="C18" s="34" t="n"/>
-      <c r="D18" s="34" t="inlineStr">
-        <is>
-          <t>Checked By</t>
-        </is>
-      </c>
-      <c r="E18" s="34" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="F18" s="35" t="n"/>
-    </row>
-    <row r="19" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A19" s="36" t="inlineStr">
-        <is>
-          <t>Is client in correct OU in AD?</t>
-        </is>
-      </c>
-      <c r="B19" s="37" t="n"/>
-      <c r="C19" s="38" t="n"/>
-      <c r="D19" s="37" t="n"/>
-      <c r="E19" s="37" t="n"/>
-      <c r="F19" s="39" t="n"/>
-    </row>
-    <row r="20" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A20" s="36" t="n"/>
-      <c r="B20" s="38" t="n"/>
-      <c r="C20" s="38" t="n"/>
-      <c r="D20" s="38" t="n"/>
-      <c r="E20" s="40" t="n"/>
-      <c r="F20" s="39" t="n"/>
-    </row>
-    <row r="21" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A21" s="36" t="inlineStr">
-        <is>
-          <t>Is client in correct AD groups?</t>
-        </is>
-      </c>
-      <c r="B21" s="37" t="n"/>
-      <c r="C21" s="38" t="n"/>
-      <c r="D21" s="37" t="n"/>
-      <c r="E21" s="37" t="n"/>
-      <c r="F21" s="39" t="n"/>
-    </row>
-    <row r="22" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="38" t="n"/>
-      <c r="C22" s="38" t="n"/>
-      <c r="D22" s="38" t="n"/>
-      <c r="E22" s="40" t="n"/>
-      <c r="F22" s="39" t="n"/>
-    </row>
-    <row r="23" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A23" s="36" t="inlineStr">
-        <is>
-          <t>Does client have correct naming convention?</t>
-        </is>
-      </c>
-      <c r="B23" s="42" t="n"/>
-      <c r="C23" s="38" t="n"/>
-      <c r="D23" s="42" t="n"/>
-      <c r="E23" s="42" t="n"/>
-      <c r="F23" s="39" t="n"/>
-    </row>
-    <row r="24" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A24" s="52" t="n"/>
-      <c r="B24" s="43" t="n"/>
-      <c r="C24" s="38" t="n"/>
-      <c r="D24" s="38" t="n"/>
-      <c r="E24" s="40" t="n"/>
-      <c r="F24" s="39" t="n"/>
-    </row>
-    <row r="25" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A25" s="36" t="inlineStr">
-        <is>
-          <t>Does client have a valid useful description?</t>
-        </is>
-      </c>
-      <c r="B25" s="37" t="n"/>
-      <c r="C25" s="38" t="n"/>
-      <c r="D25" s="37" t="n"/>
-      <c r="E25" s="37" t="n"/>
-      <c r="F25" s="39" t="n"/>
-    </row>
-    <row r="26" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A26" s="36" t="inlineStr">
-        <is>
-          <t>Has the NEW client been setup in:</t>
-        </is>
-      </c>
-      <c r="B26" s="38" t="n"/>
-      <c r="C26" s="38" t="n"/>
-      <c r="D26" s="38" t="n"/>
-      <c r="E26" s="40" t="n"/>
-      <c r="F26" s="39" t="n"/>
-    </row>
-    <row r="27" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A27" s="44" t="inlineStr">
-        <is>
-          <t>Active Directory</t>
-        </is>
-      </c>
-      <c r="B27" s="37" t="n"/>
-      <c r="C27" s="38" t="n"/>
-      <c r="D27" s="37" t="n"/>
-      <c r="E27" s="37" t="n"/>
-      <c r="F27" s="39" t="n"/>
-    </row>
-    <row r="28" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A28" s="44" t="inlineStr">
-        <is>
-          <t>Cylance</t>
-        </is>
-      </c>
-      <c r="B28" s="45" t="n"/>
-      <c r="C28" s="38" t="n"/>
-      <c r="D28" s="45" t="n"/>
-      <c r="E28" s="45" t="n"/>
-      <c r="F28" s="39" t="n"/>
-    </row>
-    <row r="29" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A29" s="44" t="inlineStr">
-        <is>
-          <t>SCCM</t>
-        </is>
-      </c>
-      <c r="B29" s="53" t="n"/>
-      <c r="C29" s="38" t="n"/>
-      <c r="D29" s="53" t="n"/>
-      <c r="E29" s="53" t="n"/>
-      <c r="F29" s="39" t="n"/>
-    </row>
-    <row r="30" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A30" s="44" t="n"/>
-      <c r="B30" s="49" t="n"/>
-      <c r="C30" s="38" t="n"/>
-      <c r="D30" s="49" t="n"/>
-      <c r="E30" s="49" t="n"/>
-      <c r="F30" s="39" t="n"/>
-    </row>
-    <row r="31" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A31" s="36" t="inlineStr">
-        <is>
-          <t>Has the OLD client been removed from:</t>
-        </is>
-      </c>
-      <c r="B31" s="38" t="n"/>
-      <c r="C31" s="38" t="n"/>
-      <c r="D31" s="38" t="n"/>
-      <c r="E31" s="40" t="n"/>
-      <c r="F31" s="39" t="n"/>
-    </row>
-    <row r="32" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A32" s="44" t="inlineStr">
-        <is>
-          <t>Active Directory</t>
-        </is>
-      </c>
-      <c r="B32" s="37" t="n"/>
-      <c r="C32" s="38" t="n"/>
-      <c r="D32" s="37" t="n"/>
-      <c r="E32" s="37" t="n"/>
-      <c r="F32" s="39" t="n"/>
-    </row>
-    <row r="33" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A33" s="44" t="inlineStr">
-        <is>
-          <t>Cylance</t>
-        </is>
-      </c>
-      <c r="B33" s="45" t="n"/>
-      <c r="C33" s="38" t="n"/>
-      <c r="D33" s="45" t="n"/>
-      <c r="E33" s="45" t="n"/>
-      <c r="F33" s="39" t="n"/>
-    </row>
-    <row r="34" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A34" s="44" t="inlineStr">
-        <is>
-          <t>SCCM</t>
-        </is>
-      </c>
-      <c r="B34" s="53" t="n"/>
-      <c r="C34" s="38" t="n"/>
-      <c r="D34" s="53" t="n"/>
-      <c r="E34" s="53" t="n"/>
-      <c r="F34" s="39" t="n"/>
-    </row>
-    <row r="35" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A35" s="44" t="n"/>
-      <c r="B35" s="50" t="n"/>
-      <c r="C35" s="38" t="n"/>
-      <c r="D35" s="50" t="n"/>
-      <c r="E35" s="50" t="n"/>
-      <c r="F35" s="39" t="n"/>
-    </row>
-    <row r="36" ht="30" customFormat="1" customHeight="1" s="1">
-      <c r="A36" s="36" t="inlineStr">
-        <is>
-          <t>Update 'ALL_CLIENTS' master spreadsheet</t>
-        </is>
-      </c>
-      <c r="B36" s="37" t="n"/>
-      <c r="C36" s="38" t="n"/>
-      <c r="D36" s="37" t="n"/>
-      <c r="E36" s="37" t="n"/>
-      <c r="F36" s="39" t="n"/>
-    </row>
-    <row r="37" ht="30" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A37" s="46" t="n"/>
-      <c r="B37" s="47" t="n"/>
-      <c r="C37" s="47" t="n"/>
-      <c r="D37" s="47" t="n"/>
-      <c r="E37" s="47" t="n"/>
-      <c r="F37" s="48" t="n"/>
+    <row r="1" spans="1:6" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="26"/>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="44"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1495,15 +1459,10 @@
     <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3543307086614174" right="0.3937007874015748" top="0.1574803149606299" bottom="0.3937007874015748" header="0.4330708661417323" footer="0.2362204724409449"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="36" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.35433070866141742" right="0.39370078740157483" top="0.15748031496062989" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="36" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader/>
     <oddFooter>&amp;LRef: &amp;F&amp;R&amp;D : &amp;T</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>